--- a/QMU/APP/dataset/zhuangji-ML-3.11少量数据/撞击-蒙特卡洛-少量数据.xlsx
+++ b/QMU/APP/dataset/zhuangji-ML-3.11少量数据/撞击-蒙特卡洛-少量数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji-ML-3.11少量数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B13C5-DA74-4CB5-88B0-66691311CB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E270E-66C2-4C27-BEF5-B928B9A7B7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17655" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="225" windowWidth="17640" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,9 +344,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3652,6 +3652,1656 @@
         <v>0</v>
       </c>
     </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>200</v>
+      </c>
+      <c r="B301">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>200</v>
+      </c>
+      <c r="B302">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>200</v>
+      </c>
+      <c r="B303">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>200</v>
+      </c>
+      <c r="B304">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>200</v>
+      </c>
+      <c r="B305">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>200</v>
+      </c>
+      <c r="B306">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>200</v>
+      </c>
+      <c r="B307">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>200</v>
+      </c>
+      <c r="B308">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>200</v>
+      </c>
+      <c r="B309">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>200</v>
+      </c>
+      <c r="B310">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>200</v>
+      </c>
+      <c r="B311">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>200</v>
+      </c>
+      <c r="B312">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>200</v>
+      </c>
+      <c r="B313">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>200</v>
+      </c>
+      <c r="B314">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>200</v>
+      </c>
+      <c r="B315">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>200</v>
+      </c>
+      <c r="B316">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>200</v>
+      </c>
+      <c r="B317">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>200</v>
+      </c>
+      <c r="B318">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>200</v>
+      </c>
+      <c r="B319">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>200</v>
+      </c>
+      <c r="B320">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>200</v>
+      </c>
+      <c r="B321">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>200</v>
+      </c>
+      <c r="B322">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>200</v>
+      </c>
+      <c r="B323">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>200</v>
+      </c>
+      <c r="B324">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>200</v>
+      </c>
+      <c r="B325">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>200</v>
+      </c>
+      <c r="B326">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>200</v>
+      </c>
+      <c r="B327">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>200</v>
+      </c>
+      <c r="B328">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>200</v>
+      </c>
+      <c r="B329">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>200</v>
+      </c>
+      <c r="B330">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>200</v>
+      </c>
+      <c r="B331">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>200</v>
+      </c>
+      <c r="B332">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>200</v>
+      </c>
+      <c r="B333">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>200</v>
+      </c>
+      <c r="B334">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>200</v>
+      </c>
+      <c r="B335">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>200</v>
+      </c>
+      <c r="B336">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>200</v>
+      </c>
+      <c r="B337">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>200</v>
+      </c>
+      <c r="B338">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>200</v>
+      </c>
+      <c r="B339">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>200</v>
+      </c>
+      <c r="B340">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>200</v>
+      </c>
+      <c r="B341">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>200</v>
+      </c>
+      <c r="B342">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>200</v>
+      </c>
+      <c r="B343">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>200</v>
+      </c>
+      <c r="B344">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>200</v>
+      </c>
+      <c r="B345">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>200</v>
+      </c>
+      <c r="B346">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>200</v>
+      </c>
+      <c r="B347">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>200</v>
+      </c>
+      <c r="B348">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>200</v>
+      </c>
+      <c r="B349">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>200</v>
+      </c>
+      <c r="B350">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>300</v>
+      </c>
+      <c r="B351">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>300</v>
+      </c>
+      <c r="B352">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>300</v>
+      </c>
+      <c r="B353">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>300</v>
+      </c>
+      <c r="B354">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>300</v>
+      </c>
+      <c r="B355">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>300</v>
+      </c>
+      <c r="B356">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>300</v>
+      </c>
+      <c r="B357">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>300</v>
+      </c>
+      <c r="B358">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>300</v>
+      </c>
+      <c r="B359">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>300</v>
+      </c>
+      <c r="B360">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>300</v>
+      </c>
+      <c r="B361">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>300</v>
+      </c>
+      <c r="B362">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>300</v>
+      </c>
+      <c r="B363">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>300</v>
+      </c>
+      <c r="B364">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>300</v>
+      </c>
+      <c r="B365">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>300</v>
+      </c>
+      <c r="B366">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>300</v>
+      </c>
+      <c r="B367">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>300</v>
+      </c>
+      <c r="B368">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>300</v>
+      </c>
+      <c r="B369">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>300</v>
+      </c>
+      <c r="B370">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>300</v>
+      </c>
+      <c r="B371">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>300</v>
+      </c>
+      <c r="B372">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>300</v>
+      </c>
+      <c r="B373">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>300</v>
+      </c>
+      <c r="B374">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>300</v>
+      </c>
+      <c r="B375">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>300</v>
+      </c>
+      <c r="B376">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>300</v>
+      </c>
+      <c r="B377">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>300</v>
+      </c>
+      <c r="B378">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>300</v>
+      </c>
+      <c r="B379">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>300</v>
+      </c>
+      <c r="B380">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>300</v>
+      </c>
+      <c r="B381">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>300</v>
+      </c>
+      <c r="B382">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>300</v>
+      </c>
+      <c r="B383">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>300</v>
+      </c>
+      <c r="B384">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>300</v>
+      </c>
+      <c r="B385">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>300</v>
+      </c>
+      <c r="B386">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>300</v>
+      </c>
+      <c r="B387">
+        <v>1.4187293333</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>300</v>
+      </c>
+      <c r="B388">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>300</v>
+      </c>
+      <c r="B389">
+        <v>1.4187293333</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>300</v>
+      </c>
+      <c r="B390">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>300</v>
+      </c>
+      <c r="B391">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>300</v>
+      </c>
+      <c r="B392">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>300</v>
+      </c>
+      <c r="B393">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>300</v>
+      </c>
+      <c r="B394">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>300</v>
+      </c>
+      <c r="B395">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>300</v>
+      </c>
+      <c r="B396">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>300</v>
+      </c>
+      <c r="B397">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>300</v>
+      </c>
+      <c r="B398">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>300</v>
+      </c>
+      <c r="B399">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>300</v>
+      </c>
+      <c r="B400">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>400</v>
+      </c>
+      <c r="B403">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>400</v>
+      </c>
+      <c r="B404">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>400</v>
+      </c>
+      <c r="B405">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>400</v>
+      </c>
+      <c r="B406">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>400</v>
+      </c>
+      <c r="B407">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>400</v>
+      </c>
+      <c r="B408">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>400</v>
+      </c>
+      <c r="B409">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>400</v>
+      </c>
+      <c r="B410">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>400</v>
+      </c>
+      <c r="B411">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>400</v>
+      </c>
+      <c r="B412">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>400</v>
+      </c>
+      <c r="B413">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>400</v>
+      </c>
+      <c r="B414">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>400</v>
+      </c>
+      <c r="B415">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>400</v>
+      </c>
+      <c r="B416">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>400</v>
+      </c>
+      <c r="B417">
+        <v>1.1479373333</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>400</v>
+      </c>
+      <c r="B418">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>400</v>
+      </c>
+      <c r="B419">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>400</v>
+      </c>
+      <c r="B420">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>400</v>
+      </c>
+      <c r="B421">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>400</v>
+      </c>
+      <c r="B422">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>400</v>
+      </c>
+      <c r="B423">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>400</v>
+      </c>
+      <c r="B424">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>400</v>
+      </c>
+      <c r="B425">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>400</v>
+      </c>
+      <c r="B426">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>400</v>
+      </c>
+      <c r="B427">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>400</v>
+      </c>
+      <c r="B428">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>400</v>
+      </c>
+      <c r="B429">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>400</v>
+      </c>
+      <c r="B430">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>400</v>
+      </c>
+      <c r="B431">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>400</v>
+      </c>
+      <c r="B432">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>400</v>
+      </c>
+      <c r="B433">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>400</v>
+      </c>
+      <c r="B434">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>400</v>
+      </c>
+      <c r="B435">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>400</v>
+      </c>
+      <c r="B436">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>400</v>
+      </c>
+      <c r="B437">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>400</v>
+      </c>
+      <c r="B438">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>400</v>
+      </c>
+      <c r="B439">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>400</v>
+      </c>
+      <c r="B440">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>400</v>
+      </c>
+      <c r="B441">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>400</v>
+      </c>
+      <c r="B442">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>400</v>
+      </c>
+      <c r="B443">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>400</v>
+      </c>
+      <c r="B444">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>400</v>
+      </c>
+      <c r="B445">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>400</v>
+      </c>
+      <c r="B446">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>400</v>
+      </c>
+      <c r="B447">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>400</v>
+      </c>
+      <c r="B448">
+        <v>1.2156353333000001</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>400</v>
+      </c>
+      <c r="B449">
+        <v>1.2833333333000001</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>400</v>
+      </c>
+      <c r="B450">
+        <v>1.3510313332999999</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
